--- a/aggregate_info/aggregate_info_10.xlsx
+++ b/aggregate_info/aggregate_info_10.xlsx
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -867,6 +867,1122 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ИТМО с тобой. Музыкальное видео</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22 Июня - 11 Июля</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Акция</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>медиашкола MBSchool</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20 Сентября - 30 Декабря</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ITMO.MUSICAL «Последний заказ»</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>20 Мая</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Квест-игра &amp;quot;Photonics Horror Story&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19 Сентября</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ITMO FAMILY DAY</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18 Июня</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Участник, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Финал 1 раунда ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18 Декабря</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Гала-концерт</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Квест для первокурсников &amp;quot;Contro la famiglia&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17 Сентября</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>факультетский</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Форт ИТМО XIII. Украсть башню</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17 Апреля</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Квест</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Спектакль Театра Миниатюр &amp;quot;Где нет темноты&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15 Мая</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Спектакль</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Митап для руководителей и сотрудников Центров карьеры вузов России</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14 Сентября</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Митап</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>межвузовский</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13 Марта - 30 Мая</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Подкаст Что под скорлупой</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12 Ноября - 05 Февраля</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>всероссийский</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11 Сентября - 27 Ноября</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Ответственный исполнитель</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11 Сентября - 18 Декабря</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 1 (2021)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11 Сентября - 12 Декабря</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Участие студентов ИТМО в фестивале Арт Студия 2022</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>11 Мая - 29 Мая</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Участие студентов ИТМО в фестивале Студенческая Весна СПб 2022</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11 Апреля - 15 Мая</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ITMakeup.Individuals</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>10 Сентября - 30 Ноября</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Курс</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 1 (2022)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10 Сентября - 11 Декабря</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Закрытие спортивного сезона &amp;quot;BARS PARTY&amp;quot;</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>09 Июня</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Вечеринка</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Фестиваль студенческих клубов «CLUB.FEST» </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>08 Сентября - 09 Сентября</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>10</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Фотошкола Мегабайт MBSCHOOL.PHOTO BASIC 21</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>08 Октября - 25 Декабря</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Школа</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>общественный</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ИТМО.ПАНЧЛАЙН</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>06 Ноября</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Съёмка танцевальных видео о законах физики</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>05 Декабря - 31 Января</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Фестиваль Студенческая весна Санкт-Петербурга 2021</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>05 Апреля - 03 Мая</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>городской</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ITMO.LiVE 2022 — Выпускной Университета ИТМО</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>02 Июля</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Встреча</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>10</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Внешние культурно-творческие мероприятия 2022</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>01 Января - 31 Декабря</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Конкурс</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>10</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Медиашкола MBschool.photo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>01 Марта - 28 Мая</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Проект</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Волонтер</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle Раунд 2 (2021)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>01 Марта - 04 Июня</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Фестиваль</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Волонтер, Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>10</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ITMO.Megabattle TV-show</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>01 Июня - 07 Июня</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>10</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Вечер танцевальных перформансов «Видимое невидимое. Work in progress»</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>01 Декабря</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Концерт</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>университетский</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Участник</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
